--- a/OTRAS_ENG - York/data/education.xlsx
+++ b/OTRAS_ENG - York/data/education.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\OTRAS_ENG - York\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5134AE-BBE1-480C-A942-7864BD1064CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B477BDE6-9BFF-4661-8B3D-23D7FB8668CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>Supervisors: Prof. \href{https://www.stir.ac.uk/people/255834}{S. Craig Roberts}, and Dr. \href{https://researchportal.bath.ac.uk/en/persons/anthony-little}{Anthony C. Little}</t>
   </si>
   <si>
-    <t>Supervisor: Prof. Prof. \href{https://www.stir.ac.uk/people/255834}{S. Craig Roberts}</t>
-  </si>
-  <si>
     <t>Research project: 82/100</t>
+  </si>
+  <si>
+    <t>Supervisor: Prof. \href{https://www.stir.ac.uk/people/255834}{S. Craig Roberts}</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
